--- a/biology/Médecine/1200_en_santé_et_médecine/1200_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1200_en_santé_et_médecine/1200_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1200_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1200_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1200 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1200_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1200_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>15 janvier : une charte du roi Philippe Auguste accorde à la communauté des maîtres et écoliers de Paris le for ecclésiastique, acte qui peut-être tenu pour fondateur de l'université de Paris.
-7 février et 5 mai : le roi Jean sans Terre accorde une foire annuelle, à la fin de la Pâque, aux lépreux de la léproserie de Carentan, en Normandie[1], et une autre, le jour de la Saint-Gilles, à ceux de la léproserie de Néhou fondée avant le règne de Philippe-Auguste par Richard de Vernon[2].
-Les frères de l'ordre de la Très-Sainte-Trinité et de la Rédemption des captifs ou ordre des Trinitaires s'établissent à Châlons, en Champagne, « où l'évêque Rotrou du Perche les charge de s'occuper des pauvres et des malades[3] ».
+7 février et 5 mai : le roi Jean sans Terre accorde une foire annuelle, à la fin de la Pâque, aux lépreux de la léproserie de Carentan, en Normandie, et une autre, le jour de la Saint-Gilles, à ceux de la léproserie de Néhou fondée avant le règne de Philippe-Auguste par Richard de Vernon.
+Les frères de l'ordre de la Très-Sainte-Trinité et de la Rédemption des captifs ou ordre des Trinitaires s'établissent à Châlons, en Champagne, « où l'évêque Rotrou du Perche les charge de s'occuper des pauvres et des malades ».
 Vers 1200 :
-Fondation de l'hospice Sainte-Catherine de Lyon, destiné à recevoir les orphelines, et qui sera placé en 1531 sous la juridiction de l'Aumône générale[4].
-Création, à Ax-les-Thermes, dans le comté de Foix, d'un bassin des ladres (« des lépreux ») auprès duquel le roi Saint Louis fera construire en 1260 un hôtel-Dieu, ancêtre de l'hôpital actuel[5].
-1200 ou 1205 : à Caudebec, en Normandie, fondation par Richard de Villequier d'un hospice dédié à saint Julien[6],[7],[8].</t>
+Fondation de l'hospice Sainte-Catherine de Lyon, destiné à recevoir les orphelines, et qui sera placé en 1531 sous la juridiction de l'Aumône générale.
+Création, à Ax-les-Thermes, dans le comté de Foix, d'un bassin des ladres (« des lépreux ») auprès duquel le roi Saint Louis fera construire en 1260 un hôtel-Dieu, ancêtre de l'hôpital actuel.
+1200 ou 1205 : à Caudebec, en Normandie, fondation par Richard de Villequier d'un hospice dédié à saint Julien.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1200_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1200_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1200 : fl. Rebecca de Guarna, femme médecin et chirurgienne italienne, autrice de divers ouvrages, sur l'urine (De urinis), la fièvre (De febris) ou l'embryon (De embrione[9]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1200 : fl. Rebecca de Guarna, femme médecin et chirurgienne italienne, autrice de divers ouvrages, sur l'urine (De urinis), la fièvre (De febris) ou l'embryon (De embrione).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1200_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1200_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mkhitar de Her (né en 1110, 1118 ou 1120), médecin, physiologiste  et astronome arménien qui « peut être considéré comme le chef de file de l'école médicale arménienne du XIIe siècle[10],[11] ».
-Liu Wansu (né en 1120), médecin chinois, fondateur de l'« école du froid et du frais[12] ».
-1200 ou 1201 : Ibn al-Jawzi (né entre 1112 et 1116), savant et polygraphe irakien, auteur d'ouvrages sur la médecine, dont le Manafi etthobb (« Utilités de la médecine[13] »).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mkhitar de Her (né en 1110, 1118 ou 1120), médecin, physiologiste  et astronome arménien qui « peut être considéré comme le chef de file de l'école médicale arménienne du XIIe siècle, ».
+Liu Wansu (né en 1120), médecin chinois, fondateur de l'« école du froid et du frais ».
+1200 ou 1201 : Ibn al-Jawzi (né entre 1112 et 1116), savant et polygraphe irakien, auteur d'ouvrages sur la médecine, dont le Manafi etthobb (« Utilités de la médecine »).</t>
         </is>
       </c>
     </row>
